--- a/module/mDrims-Reader/documents/origin/mdrims/평생교육/평생교육.xlsx
+++ b/module/mDrims-Reader/documents/origin/mdrims/평생교육/평생교육.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/97mjh1012_dongguk_edu/Documents/CSE_Study/개인 프로젝트/mdrims-reader/mdrims-reader/documents/mdrims/lifelong_education/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - dongguk.edu\CSE_Study\개인 프로젝트\TimeTable-Generator\project\module\mDrims-Reader\mdrims-reader\documents\origin\mdrims\평생교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2A96375C4A06024FD9156304C4712D6FBB20BD02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D35FBC7E-C883-435C-8BD2-658FED13D70C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9913FC6-0236-49CE-A2C9-D209945461A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>교과과정</t>
   </si>
@@ -55,28 +55,16 @@
     <t>3</t>
   </si>
   <si>
-    <t>LED0007-01</t>
-  </si>
-  <si>
-    <t>평생교육방법론</t>
-  </si>
-  <si>
-    <t>이원춘</t>
-  </si>
-  <si>
-    <t>월7.0-9.5/15:00-18:00</t>
-  </si>
-  <si>
-    <t>LED0013-01</t>
-  </si>
-  <si>
-    <t>평생교육경영론</t>
-  </si>
-  <si>
-    <t>김은성</t>
-  </si>
-  <si>
-    <t>월2.0-4.5/10:00-13:00</t>
+    <t>LED0012-01</t>
+  </si>
+  <si>
+    <t>평생교육프로그램개발론</t>
+  </si>
+  <si>
+    <t>이영선</t>
+  </si>
+  <si>
+    <t>수5.0-7.5/13:00-16:00</t>
   </si>
   <si>
     <t>*</t>
@@ -478,7 +466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -560,26 +548,6 @@
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
